--- a/excel/xiaomiao_add_test.xlsx
+++ b/excel/xiaomiao_add_test.xlsx
@@ -85,7 +85,7 @@
  "password": "e10adc3949ba59abbe56e057f20f883e"}</t>
   </si>
   <si>
-    <t>{"msg": "操作成功","code": 200,"data": {"access_token":"381a3504-61a0-45f8-b297-27a739c5796d","expires_in": 43200}}</t>
+    <t>{"操作成功","code","access_token","expires_in"}</t>
   </si>
   <si>
     <t>access_token</t>
@@ -103,7 +103,7 @@
     <t>{"rate_value": "12", "rate_range": "0", "rate_type": "0", "tax_user_name": "郭爽", "if_enable": "1"}</t>
   </si>
   <si>
-    <t>{"msg":"操作成功","code":200}</t>
+    <t>{"操作成功","code"}</t>
   </si>
   <si>
     <t>不存在的用户名登录</t>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1214,7 +1214,7 @@
     <col min="8" max="8" width="16.4444444444444" style="4" customWidth="1"/>
     <col min="9" max="9" width="21.6666666666667" style="4" customWidth="1"/>
     <col min="10" max="10" width="11.2222222222222" style="4" customWidth="1"/>
-    <col min="11" max="11" width="35.4444444444444" style="4" customWidth="1"/>
+    <col min="11" max="11" width="19.5555555555556" style="4" customWidth="1"/>
     <col min="12" max="12" width="17" style="4" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" customWidth="1"/>
     <col min="14" max="15" width="9" style="4"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" customFormat="1" ht="144" spans="1:15">
+    <row r="3" customFormat="1" ht="86.4" spans="1:15">
       <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
